--- a/migforecasting/cities13-14/4/d9.xlsx
+++ b/migforecasting/cities13-14/4/d9.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Albert\.spyder-py3\ITMO-2\migforecasting\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Albert\.spyder-py3\ITMO-2\migforecasting\cities13-14\4\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="891" uniqueCount="610">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="879" uniqueCount="610">
   <si>
     <t>2013</t>
   </si>
@@ -2247,10 +2247,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S79"/>
+  <dimension ref="A1:S80"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S5" sqref="S5"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="I66" sqref="I66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4151,41 +4151,44 @@
       <c r="A49" s="1">
         <v>47</v>
       </c>
+      <c r="B49" t="s">
+        <v>399</v>
+      </c>
       <c r="C49" t="s">
-        <v>0</v>
+        <v>399</v>
       </c>
       <c r="D49" t="s">
-        <v>1</v>
+        <v>399</v>
       </c>
       <c r="E49" t="s">
-        <v>2</v>
+        <v>399</v>
       </c>
       <c r="F49" t="s">
-        <v>0</v>
+        <v>399</v>
       </c>
       <c r="G49" t="s">
-        <v>1</v>
+        <v>399</v>
       </c>
       <c r="H49" t="s">
-        <v>2</v>
+        <v>399</v>
       </c>
       <c r="I49" t="s">
-        <v>0</v>
+        <v>399</v>
       </c>
       <c r="J49" t="s">
-        <v>1</v>
+        <v>399</v>
       </c>
       <c r="K49" t="s">
-        <v>2</v>
+        <v>399</v>
       </c>
       <c r="L49" t="s">
-        <v>0</v>
+        <v>399</v>
       </c>
       <c r="M49" t="s">
-        <v>1</v>
+        <v>399</v>
       </c>
       <c r="N49" t="s">
-        <v>2</v>
+        <v>399</v>
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.25">
@@ -4193,43 +4196,43 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C50" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D50" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="E50" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="F50" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="G50" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="H50" t="s">
-        <v>399</v>
+        <v>406</v>
       </c>
       <c r="I50" t="s">
-        <v>399</v>
+        <v>407</v>
       </c>
       <c r="J50" t="s">
-        <v>399</v>
+        <v>408</v>
       </c>
       <c r="K50" t="s">
-        <v>399</v>
+        <v>409</v>
       </c>
       <c r="L50" t="s">
-        <v>399</v>
+        <v>410</v>
       </c>
       <c r="M50" t="s">
-        <v>399</v>
+        <v>411</v>
       </c>
       <c r="N50" t="s">
-        <v>399</v>
+        <v>412</v>
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.25">
@@ -4237,43 +4240,43 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>400</v>
+        <v>413</v>
       </c>
       <c r="C51" t="s">
-        <v>401</v>
+        <v>413</v>
       </c>
       <c r="D51" t="s">
-        <v>402</v>
+        <v>413</v>
       </c>
       <c r="E51" t="s">
-        <v>403</v>
+        <v>413</v>
       </c>
       <c r="F51" t="s">
-        <v>404</v>
+        <v>413</v>
       </c>
       <c r="G51" t="s">
-        <v>405</v>
+        <v>413</v>
       </c>
       <c r="H51" t="s">
-        <v>406</v>
+        <v>413</v>
       </c>
       <c r="I51" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
       <c r="J51" t="s">
-        <v>408</v>
+        <v>413</v>
       </c>
       <c r="K51" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="L51" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="M51" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="N51" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.25">
@@ -4281,43 +4284,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>413</v>
-      </c>
-      <c r="C52" t="s">
-        <v>413</v>
-      </c>
-      <c r="D52" t="s">
-        <v>413</v>
-      </c>
-      <c r="E52" t="s">
-        <v>413</v>
-      </c>
-      <c r="F52" t="s">
-        <v>413</v>
-      </c>
-      <c r="G52" t="s">
-        <v>413</v>
-      </c>
-      <c r="H52" t="s">
-        <v>413</v>
-      </c>
-      <c r="I52" t="s">
-        <v>413</v>
-      </c>
-      <c r="J52" t="s">
-        <v>413</v>
-      </c>
-      <c r="K52" t="s">
-        <v>413</v>
-      </c>
-      <c r="L52" t="s">
-        <v>413</v>
-      </c>
-      <c r="M52" t="s">
-        <v>413</v>
-      </c>
-      <c r="N52" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.25">
@@ -4325,7 +4292,43 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>414</v>
+        <v>415</v>
+      </c>
+      <c r="C53" t="s">
+        <v>416</v>
+      </c>
+      <c r="D53" t="s">
+        <v>417</v>
+      </c>
+      <c r="E53" t="s">
+        <v>418</v>
+      </c>
+      <c r="F53" t="s">
+        <v>419</v>
+      </c>
+      <c r="G53" t="s">
+        <v>210</v>
+      </c>
+      <c r="H53" t="s">
+        <v>210</v>
+      </c>
+      <c r="I53" t="s">
+        <v>419</v>
+      </c>
+      <c r="J53" t="s">
+        <v>210</v>
+      </c>
+      <c r="K53" t="s">
+        <v>420</v>
+      </c>
+      <c r="L53" t="s">
+        <v>420</v>
+      </c>
+      <c r="M53" t="s">
+        <v>420</v>
+      </c>
+      <c r="N53" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.25">
@@ -4333,43 +4336,43 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="C54" t="s">
-        <v>416</v>
+        <v>422</v>
       </c>
       <c r="D54" t="s">
-        <v>417</v>
+        <v>423</v>
       </c>
       <c r="E54" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
       <c r="F54" t="s">
-        <v>419</v>
+        <v>425</v>
       </c>
       <c r="G54" t="s">
-        <v>210</v>
+        <v>277</v>
       </c>
       <c r="H54" t="s">
-        <v>210</v>
+        <v>108</v>
       </c>
       <c r="I54" t="s">
-        <v>419</v>
+        <v>426</v>
       </c>
       <c r="J54" t="s">
-        <v>210</v>
+        <v>278</v>
       </c>
       <c r="K54" t="s">
-        <v>420</v>
+        <v>108</v>
       </c>
       <c r="L54" t="s">
-        <v>420</v>
+        <v>427</v>
       </c>
       <c r="M54" t="s">
-        <v>420</v>
+        <v>428</v>
       </c>
       <c r="N54" t="s">
-        <v>420</v>
+        <v>429</v>
       </c>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.25">
@@ -4377,43 +4380,43 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>421</v>
+        <v>430</v>
       </c>
       <c r="C55" t="s">
-        <v>422</v>
+        <v>431</v>
       </c>
       <c r="D55" t="s">
-        <v>423</v>
+        <v>432</v>
       </c>
       <c r="E55" t="s">
-        <v>424</v>
+        <v>433</v>
       </c>
       <c r="F55" t="s">
-        <v>425</v>
+        <v>281</v>
       </c>
       <c r="G55" t="s">
-        <v>277</v>
+        <v>303</v>
       </c>
       <c r="H55" t="s">
+        <v>281</v>
+      </c>
+      <c r="I55" t="s">
+        <v>434</v>
+      </c>
+      <c r="J55" t="s">
+        <v>435</v>
+      </c>
+      <c r="K55" t="s">
+        <v>282</v>
+      </c>
+      <c r="L55" t="s">
         <v>108</v>
       </c>
-      <c r="I55" t="s">
-        <v>426</v>
-      </c>
-      <c r="J55" t="s">
-        <v>278</v>
-      </c>
-      <c r="K55" t="s">
-        <v>108</v>
-      </c>
-      <c r="L55" t="s">
-        <v>427</v>
-      </c>
       <c r="M55" t="s">
-        <v>428</v>
+        <v>436</v>
       </c>
       <c r="N55" t="s">
-        <v>429</v>
+        <v>307</v>
       </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.25">
@@ -4421,43 +4424,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>430</v>
-      </c>
-      <c r="C56" t="s">
-        <v>431</v>
-      </c>
-      <c r="D56" t="s">
-        <v>432</v>
-      </c>
-      <c r="E56" t="s">
-        <v>433</v>
-      </c>
-      <c r="F56" t="s">
-        <v>281</v>
-      </c>
-      <c r="G56" t="s">
-        <v>303</v>
-      </c>
-      <c r="H56" t="s">
-        <v>281</v>
-      </c>
-      <c r="I56" t="s">
-        <v>434</v>
-      </c>
-      <c r="J56" t="s">
-        <v>435</v>
-      </c>
-      <c r="K56" t="s">
-        <v>282</v>
-      </c>
-      <c r="L56" t="s">
-        <v>108</v>
-      </c>
-      <c r="M56" t="s">
-        <v>436</v>
-      </c>
-      <c r="N56" t="s">
-        <v>307</v>
+        <v>437</v>
       </c>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.25">
@@ -4465,7 +4432,43 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>437</v>
+        <v>415</v>
+      </c>
+      <c r="C57" t="s">
+        <v>438</v>
+      </c>
+      <c r="D57" t="s">
+        <v>439</v>
+      </c>
+      <c r="E57" t="s">
+        <v>440</v>
+      </c>
+      <c r="F57" t="s">
+        <v>441</v>
+      </c>
+      <c r="G57" t="s">
+        <v>210</v>
+      </c>
+      <c r="H57" t="s">
+        <v>210</v>
+      </c>
+      <c r="I57" t="s">
+        <v>442</v>
+      </c>
+      <c r="J57" t="s">
+        <v>210</v>
+      </c>
+      <c r="K57" t="s">
+        <v>210</v>
+      </c>
+      <c r="L57" t="s">
+        <v>243</v>
+      </c>
+      <c r="M57" t="s">
+        <v>243</v>
+      </c>
+      <c r="N57" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.25">
@@ -4473,43 +4476,43 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="C58" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
       <c r="D58" t="s">
-        <v>439</v>
+        <v>444</v>
       </c>
       <c r="E58" t="s">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="F58" t="s">
-        <v>441</v>
+        <v>446</v>
       </c>
       <c r="G58" t="s">
-        <v>210</v>
+        <v>447</v>
       </c>
       <c r="H58" t="s">
-        <v>210</v>
+        <v>448</v>
       </c>
       <c r="I58" t="s">
-        <v>442</v>
+        <v>449</v>
       </c>
       <c r="J58" t="s">
-        <v>210</v>
+        <v>450</v>
       </c>
       <c r="K58" t="s">
-        <v>210</v>
+        <v>451</v>
       </c>
       <c r="L58" t="s">
-        <v>243</v>
+        <v>452</v>
       </c>
       <c r="M58" t="s">
-        <v>243</v>
+        <v>453</v>
       </c>
       <c r="N58" t="s">
-        <v>243</v>
+        <v>454</v>
       </c>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.25">
@@ -4517,43 +4520,43 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>421</v>
+        <v>455</v>
       </c>
       <c r="C59" t="s">
-        <v>443</v>
+        <v>456</v>
       </c>
       <c r="D59" t="s">
-        <v>444</v>
+        <v>457</v>
       </c>
       <c r="E59" t="s">
-        <v>445</v>
+        <v>458</v>
       </c>
       <c r="F59" t="s">
-        <v>446</v>
+        <v>459</v>
       </c>
       <c r="G59" t="s">
-        <v>447</v>
+        <v>460</v>
       </c>
       <c r="H59" t="s">
-        <v>448</v>
+        <v>461</v>
       </c>
       <c r="I59" t="s">
-        <v>449</v>
+        <v>462</v>
       </c>
       <c r="J59" t="s">
-        <v>450</v>
+        <v>463</v>
       </c>
       <c r="K59" t="s">
-        <v>451</v>
+        <v>464</v>
       </c>
       <c r="L59" t="s">
-        <v>452</v>
+        <v>465</v>
       </c>
       <c r="M59" t="s">
-        <v>453</v>
+        <v>466</v>
       </c>
       <c r="N59" t="s">
-        <v>454</v>
+        <v>467</v>
       </c>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.25">
@@ -4561,43 +4564,43 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>455</v>
+        <v>468</v>
       </c>
       <c r="C60" t="s">
-        <v>456</v>
+        <v>468</v>
       </c>
       <c r="D60" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
       <c r="E60" t="s">
-        <v>458</v>
+        <v>468</v>
       </c>
       <c r="F60" t="s">
-        <v>459</v>
+        <v>468</v>
       </c>
       <c r="G60" t="s">
-        <v>460</v>
+        <v>468</v>
       </c>
       <c r="H60" t="s">
-        <v>461</v>
+        <v>468</v>
       </c>
       <c r="I60" t="s">
-        <v>462</v>
+        <v>468</v>
       </c>
       <c r="J60" t="s">
-        <v>463</v>
+        <v>468</v>
       </c>
       <c r="K60" t="s">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="L60" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="M60" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="N60" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.25">
@@ -4605,43 +4608,43 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="C61" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="D61" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="E61" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="F61" t="s">
-        <v>468</v>
+        <v>473</v>
       </c>
       <c r="G61" t="s">
-        <v>468</v>
+        <v>474</v>
       </c>
       <c r="H61" t="s">
-        <v>468</v>
+        <v>475</v>
       </c>
       <c r="I61" t="s">
-        <v>468</v>
+        <v>476</v>
       </c>
       <c r="J61" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
       <c r="K61" t="s">
-        <v>468</v>
+        <v>478</v>
       </c>
       <c r="L61" t="s">
-        <v>468</v>
+        <v>479</v>
       </c>
       <c r="M61" t="s">
-        <v>468</v>
+        <v>480</v>
       </c>
       <c r="N61" t="s">
-        <v>468</v>
+        <v>481</v>
       </c>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.25">
@@ -4649,43 +4652,43 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>469</v>
+        <v>482</v>
       </c>
       <c r="C62" t="s">
-        <v>470</v>
+        <v>483</v>
       </c>
       <c r="D62" t="s">
-        <v>471</v>
+        <v>484</v>
       </c>
       <c r="E62" t="s">
-        <v>472</v>
+        <v>485</v>
       </c>
       <c r="F62" t="s">
-        <v>473</v>
+        <v>486</v>
       </c>
       <c r="G62" t="s">
-        <v>474</v>
+        <v>196</v>
       </c>
       <c r="H62" t="s">
-        <v>475</v>
+        <v>487</v>
       </c>
       <c r="I62" t="s">
-        <v>476</v>
+        <v>488</v>
       </c>
       <c r="J62" t="s">
-        <v>477</v>
+        <v>489</v>
       </c>
       <c r="K62" t="s">
-        <v>478</v>
+        <v>62</v>
       </c>
       <c r="L62" t="s">
-        <v>479</v>
+        <v>490</v>
       </c>
       <c r="M62" t="s">
-        <v>480</v>
+        <v>491</v>
       </c>
       <c r="N62" t="s">
-        <v>481</v>
+        <v>492</v>
       </c>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.25">
@@ -4693,43 +4696,43 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>482</v>
+        <v>493</v>
       </c>
       <c r="C63" t="s">
-        <v>483</v>
+        <v>494</v>
       </c>
       <c r="D63" t="s">
-        <v>484</v>
+        <v>495</v>
       </c>
       <c r="E63" t="s">
-        <v>485</v>
+        <v>496</v>
       </c>
       <c r="F63" t="s">
-        <v>486</v>
+        <v>497</v>
       </c>
       <c r="G63" t="s">
-        <v>196</v>
+        <v>498</v>
       </c>
       <c r="H63" t="s">
-        <v>487</v>
+        <v>499</v>
       </c>
       <c r="I63" t="s">
-        <v>488</v>
+        <v>500</v>
       </c>
       <c r="J63" t="s">
-        <v>489</v>
+        <v>501</v>
       </c>
       <c r="K63" t="s">
-        <v>62</v>
+        <v>502</v>
       </c>
       <c r="L63" t="s">
-        <v>490</v>
+        <v>503</v>
       </c>
       <c r="M63" t="s">
-        <v>491</v>
+        <v>504</v>
       </c>
       <c r="N63" t="s">
-        <v>492</v>
+        <v>505</v>
       </c>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.25">
@@ -4737,43 +4740,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>493</v>
-      </c>
-      <c r="C64" t="s">
-        <v>494</v>
-      </c>
-      <c r="D64" t="s">
-        <v>495</v>
-      </c>
-      <c r="E64" t="s">
-        <v>496</v>
-      </c>
-      <c r="F64" t="s">
-        <v>497</v>
-      </c>
-      <c r="G64" t="s">
-        <v>498</v>
-      </c>
-      <c r="H64" t="s">
-        <v>499</v>
-      </c>
-      <c r="I64" t="s">
-        <v>500</v>
-      </c>
-      <c r="J64" t="s">
-        <v>501</v>
-      </c>
-      <c r="K64" t="s">
-        <v>502</v>
-      </c>
-      <c r="L64" t="s">
-        <v>503</v>
-      </c>
-      <c r="M64" t="s">
-        <v>504</v>
-      </c>
-      <c r="N64" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.25">
@@ -4781,7 +4748,43 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>506</v>
+        <v>507</v>
+      </c>
+      <c r="C65" t="s">
+        <v>508</v>
+      </c>
+      <c r="D65" t="s">
+        <v>509</v>
+      </c>
+      <c r="E65" t="s">
+        <v>510</v>
+      </c>
+      <c r="F65" t="s">
+        <v>210</v>
+      </c>
+      <c r="G65" t="s">
+        <v>210</v>
+      </c>
+      <c r="H65" t="s">
+        <v>210</v>
+      </c>
+      <c r="I65" t="s">
+        <v>511</v>
+      </c>
+      <c r="J65" t="s">
+        <v>210</v>
+      </c>
+      <c r="K65" t="s">
+        <v>512</v>
+      </c>
+      <c r="L65" t="s">
+        <v>210</v>
+      </c>
+      <c r="M65" t="s">
+        <v>210</v>
+      </c>
+      <c r="N65" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.25">
@@ -4789,16 +4792,16 @@
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>507</v>
+        <v>513</v>
       </c>
       <c r="C66" t="s">
-        <v>508</v>
+        <v>279</v>
       </c>
       <c r="D66" t="s">
-        <v>509</v>
+        <v>210</v>
       </c>
       <c r="E66" t="s">
-        <v>510</v>
+        <v>210</v>
       </c>
       <c r="F66" t="s">
         <v>210</v>
@@ -4810,13 +4813,13 @@
         <v>210</v>
       </c>
       <c r="I66" t="s">
-        <v>511</v>
+        <v>210</v>
       </c>
       <c r="J66" t="s">
         <v>210</v>
       </c>
       <c r="K66" t="s">
-        <v>512</v>
+        <v>210</v>
       </c>
       <c r="L66" t="s">
         <v>210</v>
@@ -4832,132 +4835,54 @@
       <c r="A67" s="1">
         <v>65</v>
       </c>
-      <c r="B67" t="s">
-        <v>513</v>
-      </c>
-      <c r="C67" t="s">
-        <v>279</v>
-      </c>
-      <c r="D67" t="s">
-        <v>210</v>
-      </c>
-      <c r="E67" t="s">
-        <v>210</v>
-      </c>
-      <c r="F67" t="s">
-        <v>210</v>
-      </c>
-      <c r="G67" t="s">
-        <v>210</v>
-      </c>
-      <c r="H67" t="s">
-        <v>210</v>
-      </c>
-      <c r="I67" t="s">
-        <v>210</v>
-      </c>
-      <c r="J67" t="s">
-        <v>210</v>
-      </c>
-      <c r="K67" t="s">
-        <v>210</v>
-      </c>
-      <c r="L67" t="s">
-        <v>210</v>
-      </c>
-      <c r="M67" t="s">
-        <v>210</v>
-      </c>
-      <c r="N67" t="s">
-        <v>210</v>
-      </c>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>66</v>
       </c>
-      <c r="B68" t="s">
-        <v>514</v>
-      </c>
-      <c r="C68" t="s">
-        <v>514</v>
-      </c>
-      <c r="D68" t="s">
-        <v>514</v>
-      </c>
-      <c r="E68" t="s">
-        <v>514</v>
-      </c>
-      <c r="F68" t="s">
-        <v>514</v>
-      </c>
-      <c r="G68" t="s">
-        <v>514</v>
-      </c>
-      <c r="H68" t="s">
-        <v>514</v>
-      </c>
-      <c r="I68" t="s">
-        <v>514</v>
-      </c>
-      <c r="J68" t="s">
-        <v>514</v>
-      </c>
-      <c r="K68" t="s">
-        <v>514</v>
-      </c>
-      <c r="L68" t="s">
-        <v>514</v>
-      </c>
-      <c r="M68" t="s">
-        <v>514</v>
-      </c>
-      <c r="N68" t="s">
-        <v>514</v>
-      </c>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C69" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="D69" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="E69" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="F69" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="G69" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="H69" t="s">
-        <v>521</v>
+        <v>514</v>
       </c>
       <c r="I69" t="s">
-        <v>522</v>
+        <v>514</v>
       </c>
       <c r="J69" t="s">
-        <v>523</v>
+        <v>514</v>
       </c>
       <c r="K69" t="s">
-        <v>524</v>
+        <v>514</v>
       </c>
       <c r="L69" t="s">
-        <v>525</v>
+        <v>514</v>
       </c>
       <c r="M69" t="s">
-        <v>526</v>
+        <v>514</v>
       </c>
       <c r="N69" t="s">
-        <v>527</v>
+        <v>514</v>
       </c>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.25">
@@ -4965,43 +4890,43 @@
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>528</v>
+        <v>515</v>
       </c>
       <c r="C70" t="s">
-        <v>529</v>
+        <v>516</v>
       </c>
       <c r="D70" t="s">
-        <v>530</v>
+        <v>517</v>
       </c>
       <c r="E70" t="s">
-        <v>531</v>
+        <v>518</v>
       </c>
       <c r="F70" t="s">
-        <v>532</v>
+        <v>519</v>
       </c>
       <c r="G70" t="s">
-        <v>533</v>
+        <v>520</v>
       </c>
       <c r="H70" t="s">
-        <v>534</v>
+        <v>521</v>
       </c>
       <c r="I70" t="s">
-        <v>535</v>
+        <v>522</v>
       </c>
       <c r="J70" t="s">
-        <v>536</v>
+        <v>523</v>
       </c>
       <c r="K70" t="s">
-        <v>537</v>
+        <v>524</v>
       </c>
       <c r="L70" t="s">
-        <v>538</v>
+        <v>525</v>
       </c>
       <c r="M70" t="s">
-        <v>539</v>
+        <v>526</v>
       </c>
       <c r="N70" t="s">
-        <v>540</v>
+        <v>527</v>
       </c>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.25">
@@ -5009,43 +4934,43 @@
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>541</v>
+        <v>528</v>
       </c>
       <c r="C71" t="s">
-        <v>542</v>
+        <v>529</v>
       </c>
       <c r="D71" t="s">
-        <v>543</v>
+        <v>530</v>
       </c>
       <c r="E71" t="s">
-        <v>544</v>
+        <v>531</v>
       </c>
       <c r="F71" t="s">
-        <v>545</v>
+        <v>532</v>
       </c>
       <c r="G71" t="s">
-        <v>546</v>
+        <v>533</v>
       </c>
       <c r="H71" t="s">
-        <v>547</v>
+        <v>534</v>
       </c>
       <c r="I71" t="s">
-        <v>81</v>
+        <v>535</v>
       </c>
       <c r="J71" t="s">
-        <v>548</v>
+        <v>536</v>
       </c>
       <c r="K71" t="s">
-        <v>549</v>
+        <v>537</v>
       </c>
       <c r="L71" t="s">
-        <v>550</v>
+        <v>538</v>
       </c>
       <c r="M71" t="s">
-        <v>551</v>
+        <v>539</v>
       </c>
       <c r="N71" t="s">
-        <v>552</v>
+        <v>540</v>
       </c>
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.25">
@@ -5053,43 +4978,43 @@
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>553</v>
+        <v>541</v>
       </c>
       <c r="C72" t="s">
-        <v>554</v>
+        <v>542</v>
       </c>
       <c r="D72" t="s">
-        <v>555</v>
+        <v>543</v>
       </c>
       <c r="E72" t="s">
-        <v>556</v>
+        <v>544</v>
       </c>
       <c r="F72" t="s">
-        <v>557</v>
+        <v>545</v>
       </c>
       <c r="G72" t="s">
-        <v>558</v>
+        <v>546</v>
       </c>
       <c r="H72" t="s">
-        <v>559</v>
+        <v>547</v>
       </c>
       <c r="I72" t="s">
-        <v>560</v>
+        <v>81</v>
       </c>
       <c r="J72" t="s">
-        <v>561</v>
+        <v>548</v>
       </c>
       <c r="K72" t="s">
-        <v>562</v>
+        <v>549</v>
       </c>
       <c r="L72" t="s">
-        <v>563</v>
+        <v>550</v>
       </c>
       <c r="M72" t="s">
-        <v>564</v>
+        <v>551</v>
       </c>
       <c r="N72" t="s">
-        <v>565</v>
+        <v>552</v>
       </c>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.25">
@@ -5097,43 +5022,43 @@
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>566</v>
+        <v>553</v>
       </c>
       <c r="C73" t="s">
-        <v>566</v>
+        <v>554</v>
       </c>
       <c r="D73" t="s">
-        <v>566</v>
+        <v>555</v>
       </c>
       <c r="E73" t="s">
-        <v>566</v>
+        <v>556</v>
       </c>
       <c r="F73" t="s">
-        <v>566</v>
+        <v>557</v>
       </c>
       <c r="G73" t="s">
-        <v>566</v>
+        <v>558</v>
       </c>
       <c r="H73" t="s">
-        <v>566</v>
+        <v>559</v>
       </c>
       <c r="I73" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="J73" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
       <c r="K73" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="L73" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="M73" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="N73" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.25">
@@ -5141,43 +5066,43 @@
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C74" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="D74" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="E74" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="F74" t="s">
-        <v>571</v>
+        <v>566</v>
       </c>
       <c r="G74" t="s">
-        <v>572</v>
+        <v>566</v>
       </c>
       <c r="H74" t="s">
-        <v>573</v>
+        <v>566</v>
       </c>
       <c r="I74" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="J74" t="s">
-        <v>575</v>
+        <v>566</v>
       </c>
       <c r="K74" t="s">
-        <v>576</v>
+        <v>566</v>
       </c>
       <c r="L74" t="s">
-        <v>577</v>
+        <v>566</v>
       </c>
       <c r="M74" t="s">
-        <v>578</v>
+        <v>566</v>
       </c>
       <c r="N74" t="s">
-        <v>579</v>
+        <v>566</v>
       </c>
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.25">
@@ -5185,43 +5110,43 @@
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>580</v>
+        <v>567</v>
       </c>
       <c r="C75" t="s">
-        <v>391</v>
+        <v>568</v>
       </c>
       <c r="D75" t="s">
-        <v>581</v>
+        <v>569</v>
       </c>
       <c r="E75" t="s">
-        <v>582</v>
+        <v>570</v>
       </c>
       <c r="F75" t="s">
-        <v>583</v>
+        <v>571</v>
       </c>
       <c r="G75" t="s">
-        <v>584</v>
+        <v>572</v>
       </c>
       <c r="H75" t="s">
-        <v>585</v>
+        <v>573</v>
       </c>
       <c r="I75" t="s">
-        <v>35</v>
+        <v>574</v>
       </c>
       <c r="J75" t="s">
-        <v>586</v>
+        <v>575</v>
       </c>
       <c r="K75" t="s">
-        <v>587</v>
+        <v>576</v>
       </c>
       <c r="L75" t="s">
-        <v>389</v>
+        <v>577</v>
       </c>
       <c r="M75" t="s">
-        <v>35</v>
+        <v>578</v>
       </c>
       <c r="N75" t="s">
-        <v>588</v>
+        <v>579</v>
       </c>
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.25">
@@ -5229,7 +5154,43 @@
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>589</v>
+        <v>580</v>
+      </c>
+      <c r="C76" t="s">
+        <v>391</v>
+      </c>
+      <c r="D76" t="s">
+        <v>581</v>
+      </c>
+      <c r="E76" t="s">
+        <v>582</v>
+      </c>
+      <c r="F76" t="s">
+        <v>583</v>
+      </c>
+      <c r="G76" t="s">
+        <v>584</v>
+      </c>
+      <c r="H76" t="s">
+        <v>585</v>
+      </c>
+      <c r="I76" t="s">
+        <v>35</v>
+      </c>
+      <c r="J76" t="s">
+        <v>586</v>
+      </c>
+      <c r="K76" t="s">
+        <v>587</v>
+      </c>
+      <c r="L76" t="s">
+        <v>389</v>
+      </c>
+      <c r="M76" t="s">
+        <v>35</v>
+      </c>
+      <c r="N76" t="s">
+        <v>588</v>
       </c>
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.25">
@@ -5237,43 +5198,7 @@
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>590</v>
-      </c>
-      <c r="C77" t="s">
-        <v>591</v>
-      </c>
-      <c r="D77" t="s">
-        <v>592</v>
-      </c>
-      <c r="E77" t="s">
-        <v>222</v>
-      </c>
-      <c r="F77" t="s">
-        <v>593</v>
-      </c>
-      <c r="G77" t="s">
-        <v>593</v>
-      </c>
-      <c r="H77" t="s">
-        <v>593</v>
-      </c>
-      <c r="I77" t="s">
-        <v>97</v>
-      </c>
-      <c r="J77" t="s">
-        <v>594</v>
-      </c>
-      <c r="K77" t="s">
-        <v>595</v>
-      </c>
-      <c r="L77" t="s">
-        <v>596</v>
-      </c>
-      <c r="M77" t="s">
-        <v>597</v>
-      </c>
-      <c r="N77" t="s">
-        <v>598</v>
+        <v>589</v>
       </c>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.25">
@@ -5281,43 +5206,43 @@
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>599</v>
+        <v>590</v>
       </c>
       <c r="C78" t="s">
-        <v>287</v>
+        <v>591</v>
       </c>
       <c r="D78" t="s">
-        <v>35</v>
+        <v>592</v>
       </c>
       <c r="E78" t="s">
         <v>222</v>
       </c>
       <c r="F78" t="s">
-        <v>584</v>
+        <v>593</v>
       </c>
       <c r="G78" t="s">
-        <v>600</v>
+        <v>593</v>
       </c>
       <c r="H78" t="s">
+        <v>593</v>
+      </c>
+      <c r="I78" t="s">
+        <v>97</v>
+      </c>
+      <c r="J78" t="s">
+        <v>594</v>
+      </c>
+      <c r="K78" t="s">
         <v>595</v>
       </c>
-      <c r="I78" t="s">
-        <v>313</v>
-      </c>
-      <c r="J78" t="s">
-        <v>601</v>
-      </c>
-      <c r="K78" t="s">
-        <v>602</v>
-      </c>
       <c r="L78" t="s">
-        <v>603</v>
+        <v>596</v>
       </c>
       <c r="M78" t="s">
-        <v>604</v>
+        <v>597</v>
       </c>
       <c r="N78" t="s">
-        <v>286</v>
+        <v>598</v>
       </c>
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.25">
@@ -5325,42 +5250,83 @@
         <v>77</v>
       </c>
       <c r="B79" t="s">
+        <v>599</v>
+      </c>
+      <c r="C79" t="s">
+        <v>287</v>
+      </c>
+      <c r="D79" t="s">
+        <v>35</v>
+      </c>
+      <c r="E79" t="s">
+        <v>222</v>
+      </c>
+      <c r="F79" t="s">
+        <v>584</v>
+      </c>
+      <c r="G79" t="s">
+        <v>600</v>
+      </c>
+      <c r="H79" t="s">
+        <v>595</v>
+      </c>
+      <c r="I79" t="s">
+        <v>313</v>
+      </c>
+      <c r="J79" t="s">
+        <v>601</v>
+      </c>
+      <c r="K79" t="s">
+        <v>602</v>
+      </c>
+      <c r="L79" t="s">
+        <v>603</v>
+      </c>
+      <c r="M79" t="s">
+        <v>604</v>
+      </c>
+      <c r="N79" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B80" t="s">
         <v>605</v>
       </c>
-      <c r="C79" t="s">
+      <c r="C80" t="s">
         <v>605</v>
       </c>
-      <c r="D79" t="s">
+      <c r="D80" t="s">
         <v>605</v>
       </c>
-      <c r="E79" t="s">
+      <c r="E80" t="s">
         <v>605</v>
       </c>
-      <c r="F79" t="s">
+      <c r="F80" t="s">
         <v>605</v>
       </c>
-      <c r="G79" t="s">
+      <c r="G80" t="s">
         <v>605</v>
       </c>
-      <c r="H79" t="s">
+      <c r="H80" t="s">
         <v>605</v>
       </c>
-      <c r="I79" t="s">
+      <c r="I80" t="s">
         <v>605</v>
       </c>
-      <c r="J79" t="s">
+      <c r="J80" t="s">
         <v>605</v>
       </c>
-      <c r="K79" t="s">
+      <c r="K80" t="s">
         <v>605</v>
       </c>
-      <c r="L79" t="s">
+      <c r="L80" t="s">
         <v>605</v>
       </c>
-      <c r="M79" t="s">
+      <c r="M80" t="s">
         <v>605</v>
       </c>
-      <c r="N79" t="s">
+      <c r="N80" t="s">
         <v>605</v>
       </c>
     </row>
